--- a/biology/Botanique/Orobanche_alba/Orobanche_alba.xlsx
+++ b/biology/Botanique/Orobanche_alba/Orobanche_alba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orobanche alba, l'Orobanche blanche ou Orobanche du thym, est une espèce de plantes herbacées parasites, sans chlorophylle, de la famille des Orobanchacées originaire des régions tempérées de l'hémisphère nord.
-Cette espèce parasite principalement les plantes du genre Thymus (les thyms) mais aussi sur d'autres Lamiacées. En Suisse, on la rencontre aux étages collinéen et subalpin[2].
+Cette espèce parasite principalement les plantes du genre Thymus (les thyms) mais aussi sur d'autres Lamiacées. En Suisse, on la rencontre aux étages collinéen et subalpin.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (16 août 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (16 août 2017) :
 Orobanche alba subsp. alba
 Orobanche alba subsp. cuprea (Boiss. &amp; Balansa ex Boiss.) Uhlich, Kreutz &amp; Rätzel
 Orobanche alba subsp. xanthostigma Rätzel &amp; Uhlich
 Orobanche alba var. superba (Solms ex Celak.) Uhlich &amp; Rätzel
-Selon NCBI  (16 août 2017)[4] :
+Selon NCBI  (16 août 2017) :
 Orobanche alba subsp. major</t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'est pas considérée comme étant menacée en France. En 2021 elle est classée Espèce de préoccupation mineure (LC) par l'UICN.
 Toutefois localement l'espèce peut se raréfier : elle a disparu en Nord-Pas-de-Calais ; elle est considérée Quasi menacée (NT), proche du seuil des espèces menacées ou qui pourrait être menacée si des mesures de conservation spécifiques n'étaient pas prises, dans la région Poitou-Charentes, Champagne-Ardennes et Lorraine ; elle est considérée Vulnérable (VU) en Haute-Normandie, région Centre, Limousin, Île-de-France, Bourgogne ; elle est en Danger (EN) en Basse-Normandie et Pays-de-la-Loire.
